--- a/data/df_homics_15_19.xlsx
+++ b/data/df_homics_15_19.xlsx
@@ -19,7 +19,7 @@
     <t>CVEGEO</t>
   </si>
   <si>
-    <t>delitos</t>
+    <t>homic_15_19</t>
   </si>
   <si>
     <t>01001</t>
